--- a/data_processed/20250811/BTCUSDQMOMENT_20250811.xlsx
+++ b/data_processed/20250811/BTCUSDQMOMENT_20250811.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>14.51036342051753</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.8319244784142803</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2980185349714233</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.02880460297801311</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.409774392370587</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,10 +1160,18 @@
       <c r="H19" t="n">
         <v>7.785725622024378</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-1.064347500819291</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3685536603139039</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3361587556007758</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.194017056983228</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250811/BTCUSDQMOMENT_20250811.xlsx
+++ b/data_processed/20250811/BTCUSDQMOMENT_20250811.xlsx
@@ -1202,10 +1202,18 @@
       <c r="H20" t="n">
         <v>6.858465299510215</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-1.090592475347884</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.305552710783839</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.459843913720376</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.595473261476525</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250811/BTCUSDQMOMENT_20250811.xlsx
+++ b/data_processed/20250811/BTCUSDQMOMENT_20250811.xlsx
@@ -620,19 +620,19 @@
         <v>0.2986301369863014</v>
       </c>
       <c r="D5" t="n">
-        <v>121783.8393240221</v>
+        <v>121733.9523964128</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03020008394618977</v>
+        <v>-0.0322340928438171</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2055998860261872</v>
+        <v>0.2134466353040298</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2870444160357143</v>
+        <v>-0.5217333196967884</v>
       </c>
       <c r="H5" t="n">
-        <v>5.551921102783954</v>
+        <v>6.88967694975133</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.3753424657534247</v>
       </c>
       <c r="D6" t="n">
-        <v>122320.1034920336</v>
+        <v>122321.3953810417</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04123287563062127</v>
+        <v>-0.04064292778151905</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2556549033238853</v>
+        <v>0.2496660240479755</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.523738111034933</v>
+        <v>-1.222091290184444</v>
       </c>
       <c r="H6" t="n">
-        <v>15.27655234674661</v>
+        <v>11.17698682676608</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -688,19 +688,19 @@
         <v>0.4712328767123288</v>
       </c>
       <c r="D7" t="n">
-        <v>123100.2581547313</v>
+        <v>123695.0447844893</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.08061371765650004</v>
+        <v>-0.06155936897188958</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4159358580424581</v>
+        <v>0.348242544962401</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.238472789462326</v>
+        <v>-1.798899944127958</v>
       </c>
       <c r="H7" t="n">
-        <v>11.95106464436705</v>
+        <v>9.709169778814468</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.7972602739726027</v>
       </c>
       <c r="D8" t="n">
-        <v>124007.6216220124</v>
+        <v>123998.575986155</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05573973778155311</v>
+        <v>-0.0548853577406161</v>
       </c>
       <c r="F8" t="n">
-        <v>0.224389507730409</v>
+        <v>0.217301756108597</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.166705394792903</v>
+        <v>-0.8609034449396482</v>
       </c>
       <c r="H8" t="n">
-        <v>9.859771197438626</v>
+        <v>6.879784059782924</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.873972602739726</v>
       </c>
       <c r="D9" t="n">
-        <v>126219.7709573658</v>
+        <v>126239.9451784715</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08748890431166273</v>
+        <v>-0.08156730034373043</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3958121531733944</v>
+        <v>0.352156707720064</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.481077971581595</v>
+        <v>-1.788058622705788</v>
       </c>
       <c r="H9" t="n">
-        <v>17.69153608379611</v>
+        <v>11.57987968636653</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.123287671232877</v>
       </c>
       <c r="D10" t="n">
-        <v>127371.2474473089</v>
+        <v>127371.5404308243</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1159624685705138</v>
+        <v>-0.1152899757433591</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4316863350847752</v>
+        <v>0.4264961909939701</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.970034229554358</v>
+        <v>-1.901264920955966</v>
       </c>
       <c r="H10" t="n">
-        <v>10.54364586667391</v>
+        <v>9.940567024820911</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.36986301369863</v>
       </c>
       <c r="D11" t="n">
-        <v>129316.0856772514</v>
+        <v>129296.5741108983</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1819645223096523</v>
+        <v>-0.1904950759137007</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6835339037789454</v>
+        <v>0.7499071211480109</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.331238627384894</v>
+        <v>-2.645733907725366</v>
       </c>
       <c r="H11" t="n">
-        <v>10.44640855784585</v>
+        <v>13.11949373985481</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -858,19 +858,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D12" t="n">
-        <v>120243.3887004827</v>
+        <v>121188.6162944646</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001793052638247954</v>
+        <v>0.06260678385525156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1004484724892903</v>
+        <v>0.04268309918069323</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.402121677007015</v>
+        <v>2.171951195487561</v>
       </c>
       <c r="H12" t="n">
-        <v>11.88374760960813</v>
+        <v>10.60733641771266</v>
       </c>
       <c r="I12" t="n">
         <v>-0.2722126295907367</v>
@@ -936,19 +936,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D14" t="n">
-        <v>119640.3595382154</v>
+        <v>119374.5170199741</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03991402538273136</v>
+        <v>-0.04994793125251919</v>
       </c>
       <c r="F14" t="n">
-        <v>0.172915040463256</v>
+        <v>0.129117363698701</v>
       </c>
       <c r="G14" t="n">
-        <v>0.233496355637839</v>
+        <v>-1.093875961326501</v>
       </c>
       <c r="H14" t="n">
-        <v>23.02105419696834</v>
+        <v>9.425963751313164</v>
       </c>
       <c r="I14" t="n">
         <v>-0.3535124125559107</v>
@@ -1020,19 +1020,19 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="D16" t="n">
-        <v>119425.4210826988</v>
+        <v>119426.5474815322</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.06870342375133112</v>
+        <v>-0.06858953767293566</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1599162005397179</v>
+        <v>0.1597017843689158</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.8144810883586554</v>
+        <v>-0.810140780766792</v>
       </c>
       <c r="H16" t="n">
-        <v>6.843926313228416</v>
+        <v>6.829807266412089</v>
       </c>
       <c r="I16" t="n">
         <v>-0.03768199966484031</v>
@@ -1062,19 +1062,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D17" t="n">
-        <v>119457.9433019182</v>
+        <v>119451.2492995463</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.05692069891981229</v>
+        <v>-0.05753714113305353</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1315994569198942</v>
+        <v>0.1332414227260378</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8221158607054518</v>
+        <v>-0.8949883767648086</v>
       </c>
       <c r="H17" t="n">
-        <v>8.194927657641028</v>
+        <v>8.679488017370183</v>
       </c>
       <c r="I17" t="n">
         <v>-0.1172078562980819</v>

--- a/data_processed/20250811/BTCUSDQMOMENT_20250811.xlsx
+++ b/data_processed/20250811/BTCUSDQMOMENT_20250811.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>11.18105589161218</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-1.037046763011191</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2592879346532291</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1569553271971928</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.610856118847121</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250811/BTCUSDQMOMENT_20250811.xlsx
+++ b/data_processed/20250811/BTCUSDQMOMENT_20250811.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>12.92348149368938</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-1.026102418389584</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4913086182698061</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5325361988068151</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.816322965910428</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
